--- a/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模板!$A$23:$J$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模板!$A$23:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>TFTM1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1016,15 +1016,15 @@
   </si>
   <si>
     <t>TMCAP</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>TRCT</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>他</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>单号:</t>
@@ -1043,21 +1043,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FPD/ APC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Item</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>切替日</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>FTMS 零件部 采购管理室
-所属CPD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Source</t>
@@ -1084,16 +1075,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TFTM生产管理部 补给管理课</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>【FTMS说明部分】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发注工厂</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t xml:space="preserve"> P/No.</t>
@@ -1101,7 +1088,7 @@
   </si>
   <si>
     <t>替代品番</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>【担当确认】</t>
@@ -1129,7 +1116,7 @@
   </si>
   <si>
     <t>常熟CPD</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>处理人员</t>
@@ -1161,6 +1148,14 @@
   </si>
   <si>
     <t>PIC-TFTM-201216-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TFTM生产管理部 补给资材企管课</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1168,7 +1163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1220,23 +1215,6 @@
       <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="System"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1590,93 +1568,94 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1685,218 +1664,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="_设变单" xfId="1"/>
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="2"/>
-    <cellStyle name="標準_02月" xfId="3"/>
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_设变单051010" xfId="4"/>
-    <cellStyle name="样式 1" xfId="5"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1912,63 +1888,67 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1976,14 +1956,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>84909</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>29390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1750786</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1995,8 +1975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3817620" y="1546860"/>
-          <a:ext cx="1577340" cy="342900"/>
+          <a:off x="5110480" y="1716676"/>
+          <a:ext cx="1665877" cy="406038"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2005,11 +1985,11 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
           <a:headEnd/>
@@ -2019,307 +1999,260 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>764268</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1542143</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="Text Box 20"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5789839" y="1558471"/>
+          <a:ext cx="777875" cy="183243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vertOverflow="clip" vert="horz" wrap="square" lIns="27432" tIns="18288" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>通 知</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>413656</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1070427</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Text Box 20"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9648370" y="1458685"/>
+          <a:ext cx="656771" cy="201387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vertOverflow="clip" vert="horz" wrap="square" lIns="27432" tIns="18288" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr sz="1000" b="0"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>发 布</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1435100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1871" name="201" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1435100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1870" name="75" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1032"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>213360</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>220980</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1034"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>891540</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2349,18 +2282,18 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>213360</xdr:rowOff>
+          <xdr:colOff>678180</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1257300</xdr:colOff>
+          <xdr:colOff>891540</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2390,18 +2323,18 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>891540</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2431,18 +2364,18 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>891540</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2472,18 +2405,18 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>891540</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2513,18 +2446,18 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>891540</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2552,94 +2485,20 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>860425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1044" name="Text Box 20"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3832225" y="1409700"/>
-          <a:ext cx="495300" cy="215900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-            </a:rPr>
-            <a:t>通 知</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>891540</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2669,18 +2528,18 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>861060</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>891540</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2708,122 +2567,469 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>259080</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1872" name="Check Box 848" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1872"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>259080</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1873" name="Check Box 849" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1873"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>259080</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1874" name="Check Box 850" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1874"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>259080</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1875" name="Check Box 851" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1875"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>259080</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1876" name="Check Box 852" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1876"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>259080</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1877" name="Check Box 853" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1877"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>259080</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1878" name="Check Box 854" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1878"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>53340</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>259080</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1879" name="Check Box 855" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1879"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>103051</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>11248</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1932213</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>154216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1040311</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>145142</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4136572</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1459" name="AutoShape 1"/>
-        <xdr:cNvSpPr>
+        <xdr:cNvPr id="1880" name="Text Box 856"/>
+        <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9809480" y="1480819"/>
-          <a:ext cx="937260" cy="351609"/>
+          <a:off x="6957784" y="1406073"/>
+          <a:ext cx="2204359" cy="933450"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-            <a:gd name="adj2" fmla="val 69169"/>
-          </a:avLst>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>FTMS 零件部 采购管理室</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>     所属CPD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>250371</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1758040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>61685</xdr:rowOff>
+      <xdr:rowOff>179616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>669565</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>61685</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61684</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33566</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Text Box 20"/>
+        <xdr:cNvPr id="34" name="Text Box 856"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9956800" y="1313542"/>
-          <a:ext cx="419194" cy="217714"/>
+          <a:off x="10992754" y="1431473"/>
+          <a:ext cx="2204359" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="0" bIns="0" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="宋体"/>
               <a:ea typeface="宋体"/>
             </a:rPr>
-            <a:t>发 布</a:t>
+            <a:t>FPD/APC</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -2835,29 +3041,75 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19594</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1685471</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9254308" y="1714862"/>
+          <a:ext cx="1665877" cy="406038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 69383"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>678997</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>32658</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>1091401</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>45357</xdr:rowOff>
+          <xdr:rowOff>167472</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="21" name="图片 20"/>
+            <xdr:cNvPr id="30" name="图片 29"/>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$D$8:$F$11" spid="_x0000_s1869"/>
+                  <a14:cameraTool cellRange="Sheet1!$D$8:$F$11" spid="_x0000_s1885"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2871,23 +3123,22 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="9931854" y="0"/>
-              <a:ext cx="3112135" cy="1088571"/>
+              <a:off x="14804572" y="0"/>
+              <a:ext cx="3758400" cy="1201615"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:pic>
         <xdr:clientData/>
@@ -2931,7 +3182,7 @@
         <a:noFill/>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:round/>
           <a:headEnd/>
@@ -3238,28 +3489,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K24" sqref="A24:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="7.296875" style="36" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" style="37" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="24.8984375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="55.19921875" style="36" customWidth="1"/>
     <col min="6" max="6" width="28.796875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" style="38" customWidth="1"/>
     <col min="8" max="8" width="21.69921875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="12" style="39" customWidth="1"/>
-    <col min="10" max="10" width="14.69921875" style="40" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="36"/>
+    <col min="9" max="10" width="17.69921875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
@@ -3272,22 +3523,25 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:10" ht="25.5" customHeight="1">
+    <row r="3" spans="1:11" ht="25.5" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:10">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="44"/>
       <c r="B5" s="45" t="s">
         <v>8</v>
@@ -3298,8 +3552,9 @@
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" customHeight="1">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="47" t="s">
         <v>6</v>
@@ -3308,16 +3563,12 @@
       <c r="D6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="81" t="s">
-        <v>58</v>
-      </c>
       <c r="G6" s="76"/>
-      <c r="H6" s="84" t="s">
-        <v>55</v>
-      </c>
+      <c r="H6" s="47"/>
       <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25" customHeight="1">
+    <row r="7" spans="1:11" ht="17.25" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="47" t="s">
         <v>5</v>
@@ -3326,12 +3577,12 @@
       <c r="D7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="82"/>
       <c r="G7" s="76"/>
-      <c r="H7" s="85"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25" customHeight="1">
+    <row r="8" spans="1:11" ht="17.25" customHeight="1">
       <c r="A8" s="48"/>
       <c r="B8" s="47" t="s">
         <v>10</v>
@@ -3340,12 +3591,12 @@
       <c r="D8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="82"/>
       <c r="G8" s="76"/>
-      <c r="H8" s="85"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1">
+    <row r="9" spans="1:11" ht="17.25" customHeight="1">
       <c r="A9" s="48"/>
       <c r="B9" s="47" t="s">
         <v>7</v>
@@ -3354,12 +3605,12 @@
       <c r="D9" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="83"/>
       <c r="G9" s="76"/>
-      <c r="H9" s="86"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="48"/>
       <c r="B10" s="47" t="s">
         <v>3</v>
@@ -3369,11 +3620,11 @@
         <v>49</v>
       </c>
       <c r="E10" s="48"/>
-      <c r="F10" s="47"/>
       <c r="H10" s="47"/>
       <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="51"/>
       <c r="B11" s="52" t="s">
         <v>4</v>
@@ -3384,13 +3635,14 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="44"/>
       <c r="B14" s="55"/>
       <c r="C14" s="56"/>
@@ -3400,9 +3652,10 @@
       <c r="G14" s="57"/>
       <c r="H14" s="45"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="78"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="78"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="51"/>
       <c r="B15" s="59"/>
       <c r="C15" s="53"/>
@@ -3412,9 +3665,10 @@
       <c r="G15" s="60"/>
       <c r="H15" s="52"/>
       <c r="I15" s="61"/>
-      <c r="J15" s="79"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="79"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
       <c r="C16" s="62"/>
@@ -3424,14 +3678,15 @@
       <c r="G16" s="63"/>
       <c r="H16" s="47"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="64"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="64"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="44"/>
       <c r="B18" s="45"/>
       <c r="C18" s="58"/>
@@ -3441,9 +3696,10 @@
       <c r="G18" s="57"/>
       <c r="H18" s="45"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="78"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="78"/>
     </row>
-    <row r="19" spans="1:10" s="71" customFormat="1">
+    <row r="19" spans="1:11" s="71" customFormat="1">
       <c r="A19" s="66"/>
       <c r="B19" s="59"/>
       <c r="C19" s="67"/>
@@ -3453,154 +3709,175 @@
       <c r="G19" s="69"/>
       <c r="H19" s="59"/>
       <c r="I19" s="70"/>
-      <c r="J19" s="80"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="80"/>
     </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1">
+    <row r="21" spans="1:11" ht="18" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A22" s="89" t="s">
+    <row r="22" spans="1:11" ht="21.75" customHeight="1">
+      <c r="A22" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
       <c r="J22" s="89"/>
+      <c r="K22" s="88"/>
     </row>
-    <row r="23" spans="1:10" s="39" customFormat="1" ht="122.55" customHeight="1">
+    <row r="23" spans="1:11" s="39" customFormat="1" ht="122.55" customHeight="1">
       <c r="A23" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="73" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="73" t="s">
-        <v>57</v>
       </c>
       <c r="E23" s="74" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="74" t="s">
+      <c r="J23" s="83" t="s">
         <v>14</v>
       </c>
+      <c r="K23" s="74" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" s="25" customFormat="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
+    <row r="24" spans="1:11">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="D25" s="40"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+    <row r="25" spans="1:11" s="25" customFormat="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="36" t="s">
-        <v>70</v>
-      </c>
+    <row r="26" spans="1:11">
       <c r="D26" s="40"/>
       <c r="E26" s="65"/>
       <c r="F26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="87"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="72" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="74" t="s">
+      <c r="H28" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="I28" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="J28" s="86"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="74"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="74"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="28" t="s">
-        <v>78</v>
-      </c>
       <c r="B29" s="28"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="33"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="74"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="74"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <autoFilter ref="A23:J23"/>
-  <mergeCells count="4">
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A22:J22"/>
+  <autoFilter ref="A23:K23"/>
+  <mergeCells count="1">
+    <mergeCell ref="A22:K22"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -3609,20 +3886,20 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId4" name="Check Box 4">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1035" r:id="rId4" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>220980</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>678180</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3631,20 +3908,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId5" name="Check Box 5">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1036" r:id="rId5" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>220980</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3653,20 +3930,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId6" name="Check Box 6">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1037" r:id="rId6" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>220980</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>891540</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3675,18 +3952,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId7" name="Check Box 7">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1038" r:id="rId7" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>220980</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>891540</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -3697,18 +3974,18 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId8" name="Check Box 8">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1039" r:id="rId8" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>220980</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>891540</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -3719,85 +3996,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId9" name="Check Box 9">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>220980</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>213360</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId10" name="Check Box 10">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>220980</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId11" name="Check Box 11">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1040" r:id="rId9" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId12" name="Check Box 12">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>213360</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3807,20 +4018,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1037" r:id="rId13" name="Check Box 13">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1114" r:id="rId10" name="Check Box 90">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3829,20 +4040,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId14" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1115" r:id="rId11" name="Check Box 91">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3851,20 +4062,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId15" name="Check Box 15">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1872" r:id="rId12" name="Check Box 848">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3873,20 +4084,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId16" name="Check Box 16">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1873" r:id="rId13" name="Check Box 849">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3895,20 +4106,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1114" r:id="rId17" name="Check Box 90">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1874" r:id="rId14" name="Check Box 850">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3917,20 +4128,108 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1115" r:id="rId18" name="Check Box 91">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
+            <control shapeId="1875" r:id="rId15" name="Check Box 851">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>861060</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1257300</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1876" r:id="rId16" name="Check Box 852">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1877" r:id="rId17" name="Check Box 853">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1878" r:id="rId18" name="Check Box 854">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1879" r:id="rId19" name="Check Box 855">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4044,7 +4343,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4155,7 +4454,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4165,7 +4464,7 @@
   <dimension ref="D8:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D8" sqref="D8:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4175,20 +4474,20 @@
   <sheetData>
     <row r="8" spans="4:6">
       <c r="D8" s="95" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="48" customHeight="1">
@@ -4207,6 +4506,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模板!$A$23:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>TFTM1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1144,10 +1144,6 @@
       </rPr>
       <t>零件采购管理室</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIC-TFTM-201216-01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1587,7 +1583,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1831,12 +1827,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3109,7 +3099,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$D$8:$F$11" spid="_x0000_s1885"/>
+                  <a14:cameraTool cellRange="Sheet1!$D$8:$F$11" spid="_x0000_s1887"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3489,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K24" sqref="A24:K24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3532,9 +3522,7 @@
       <c r="A3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>77</v>
-      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="43"/>
       <c r="D3" s="34"/>
     </row>
@@ -3718,19 +3706,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="88"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="86"/>
     </row>
     <row r="23" spans="1:11" s="39" customFormat="1" ht="122.55" customHeight="1">
       <c r="A23" s="74" t="s">
@@ -3764,36 +3752,34 @@
         <v>14</v>
       </c>
       <c r="K23" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
+    <row r="24" spans="1:11" s="25" customFormat="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="1:11" s="25" customFormat="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
+    <row r="25" spans="1:11">
+      <c r="D25" s="40"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:11">
+      <c r="A26" s="36" t="s">
+        <v>67</v>
+      </c>
       <c r="D26" s="40"/>
       <c r="E26" s="65"/>
       <c r="F26" s="40"/>
@@ -3802,72 +3788,61 @@
       <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="84"/>
+      <c r="K27" s="74"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="86"/>
+      <c r="A28" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="85"/>
       <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="28"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="74"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="33"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="87"/>
+      <c r="J29" s="85"/>
       <c r="K29" s="74"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="74"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
@@ -4263,17 +4238,17 @@
       <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" customHeight="1" thickTop="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="91" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -4284,8 +4259,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="94"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="18" t="s">
         <v>33</v>
       </c>
@@ -4473,11 +4448,11 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:6">
-      <c r="D8" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
+      <c r="D8" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="26" t="s">

--- a/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模板!$A$23:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -3099,7 +3099,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$D$8:$F$11" spid="_x0000_s1887"/>
+                  <a14:cameraTool cellRange="Sheet1!$D$8:$F$11" spid="_x0000_s1889"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3482,7 +3482,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -3720,7 +3720,7 @@
       <c r="J22" s="87"/>
       <c r="K22" s="86"/>
     </row>
-    <row r="23" spans="1:11" s="39" customFormat="1" ht="122.55" customHeight="1">
+    <row r="23" spans="1:11" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="74" t="s">
         <v>55</v>
       </c>

--- a/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\董镇\补给项目\API\SPPSApi\Doc\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547DB074-D3F2-4371-AFFE-501816B2F4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2376" windowWidth="11700" windowHeight="5724" tabRatio="396"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -13,14 +19,14 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模板!$A$23:$K$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模板!$A$23:$M$23</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>TFTM1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1154,11 +1160,19 @@
     <t>TFTM生产管理部 补给资材企管课</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>入荷CPD</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>中文品名</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -1485,19 +1499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1577,13 +1578,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1819,50 +1831,56 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1945,20 +1963,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>84909</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>29390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1750786</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1457" name="AutoShape 1"/>
+        <xdr:cNvPr id="1457" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1050000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1991,20 +2015,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>764268</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1542143</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1044" name="Text Box 20"/>
+        <xdr:cNvPr id="1044" name="Text Box 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2065,20 +2095,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>413656</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>206828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1070427</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Text Box 20"/>
+        <xdr:cNvPr id="28" name="Text Box 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2152,14 +2188,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>1435100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1871" name="201" hidden="1"/>
+        <xdr:cNvPr id="1871" name="201" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F070000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2195,14 +2237,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>1435100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1870" name="75" hidden="1"/>
+        <xdr:cNvPr id="1870" name="75" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E070000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2233,14 +2281,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>678180</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>891540</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2251,11 +2299,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2263,6 +2314,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2274,16 +2336,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>678180</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>891540</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>196850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2292,11 +2354,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2304,6 +2369,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2315,14 +2391,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>678180</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>891540</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2333,11 +2409,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2345,6 +2424,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2356,14 +2446,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>678180</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>891540</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2374,11 +2464,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2386,6 +2479,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2397,14 +2501,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>678180</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>891540</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2415,11 +2519,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2427,6 +2534,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2438,14 +2556,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>678180</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>891540</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2456,11 +2574,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2468,6 +2589,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2479,14 +2611,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>678180</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>891540</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2497,11 +2629,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2509,6 +2644,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2520,14 +2666,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>678180</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>679450</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>891540</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>889000</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2538,11 +2684,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1115"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2550,6 +2699,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2562,13 +2722,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2579,11 +2739,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1872"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050070000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2591,6 +2754,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2603,15 +2777,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>196850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2620,11 +2794,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1873"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051070000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2632,6 +2809,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2644,13 +2832,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2661,11 +2849,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1874"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052070000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2673,6 +2864,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2685,13 +2887,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2702,11 +2904,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1875"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053070000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2714,6 +2919,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2726,13 +2942,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2743,11 +2959,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1876"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054070000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2755,6 +2974,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2767,13 +2997,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2784,11 +3014,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1877"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055070000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2796,6 +3029,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2808,13 +3052,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2825,11 +3069,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1878"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056070000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2837,6 +3084,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2849,13 +3107,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>260350</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -2866,11 +3124,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1879"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057070000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2878,6 +3139,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2887,20 +3159,26 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1932213</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>154216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>4136572</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>8166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1880" name="Text Box 856"/>
+        <xdr:cNvPr id="1880" name="Text Box 856">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058070000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2964,20 +3242,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1758040</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>179616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>61684</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>33566</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Text Box 856"/>
+        <xdr:cNvPr id="34" name="Text Box 856">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3033,20 +3317,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19594</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>27576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1685471</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="AutoShape 1"/>
+        <xdr:cNvPr id="35" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3081,25 +3371,31 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>32658</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
+          <xdr:col>12</xdr:col>
           <xdr:colOff>1091401</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>167472</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="30" name="图片 29"/>
+            <xdr:cNvPr id="30" name="图片 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$D$8:$F$11" spid="_x0000_s1889"/>
+                  <a14:cameraTool cellRange="Sheet1!$D$8:$F$11" spid="_x0000_s1912"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3156,7 +3452,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2134" name="Line 1"/>
+        <xdr:cNvPr id="2134" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3235,7 +3537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3268,9 +3570,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3303,6 +3622,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3478,29 +3814,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.296875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="37" customWidth="1"/>
-    <col min="4" max="4" width="24.8984375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="55.19921875" style="36" customWidth="1"/>
-    <col min="6" max="6" width="28.796875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="21.69921875" style="36" customWidth="1"/>
-    <col min="9" max="10" width="17.69921875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="14.69921875" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="7.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="24.9140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="55.1640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="22.4140625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="36" customWidth="1"/>
+    <col min="11" max="12" width="17.6640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="40" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1">
+    <row r="1" spans="1:13" ht="27" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>53</v>
       </c>
@@ -3509,346 +3847,385 @@
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="D2" s="34"/>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="E2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="25.5" customHeight="1">
+    <row r="3" spans="1:13" ht="25.5" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1">
-      <c r="H4" s="47"/>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1">
+      <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="44"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1">
       <c r="A6" s="48"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1">
       <c r="A7" s="48"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" customHeight="1">
+    <row r="8" spans="1:13" ht="17.25" customHeight="1">
       <c r="A8" s="48"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" customHeight="1">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1">
       <c r="A9" s="48"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" s="48"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14" s="44"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
-      <c r="G14" s="57"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="78"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="78"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" s="51"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
-      <c r="G15" s="60"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="52"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="79"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="79"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="63"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="47"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="64"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="64"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:13">
       <c r="A17" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:13">
       <c r="A18" s="44"/>
       <c r="B18" s="45"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
-      <c r="G18" s="57"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="78"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="78"/>
     </row>
-    <row r="19" spans="1:11" s="71" customFormat="1">
+    <row r="19" spans="1:13" s="71" customFormat="1">
       <c r="A19" s="66"/>
       <c r="B19" s="59"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="59"/>
-      <c r="G19" s="69"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="59"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="80"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="80"/>
     </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1">
+    <row r="21" spans="1:13" ht="18" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21.75" customHeight="1">
+    <row r="22" spans="1:13" ht="21.75" customHeight="1">
       <c r="A22" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="86"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="86"/>
       <c r="D22" s="86"/>
       <c r="E22" s="86"/>
       <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
-      <c r="J22" s="87"/>
+      <c r="J22" s="86"/>
       <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="86"/>
     </row>
-    <row r="23" spans="1:11" s="39" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:13" s="39" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="D23" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="E23" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="F23" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="G23" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="77" t="s">
+      <c r="I23" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="74" t="s">
+      <c r="J23" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="K23" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="83" t="s">
+      <c r="L23" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="74" t="s">
+      <c r="M23" s="74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="25" customFormat="1">
+    <row r="24" spans="1:13" s="25" customFormat="1">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
     </row>
-    <row r="25" spans="1:11">
-      <c r="D25" s="40"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="40"/>
+    <row r="25" spans="1:13">
+      <c r="E25" s="40"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
       <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:13">
       <c r="A26" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
       <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:13">
       <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="95"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="E27" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="F27" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="G27" s="85"/>
+      <c r="H27" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="I27" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="74" t="s">
+      <c r="J27" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="72" t="s">
+      <c r="K27" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="84"/>
-      <c r="K27" s="74"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="74"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:13">
       <c r="A28" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="74"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="74"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:13">
       <c r="A29" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="73"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="73"/>
-      <c r="E29" s="28"/>
+      <c r="E29" s="73"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="33"/>
+      <c r="G29" s="84"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="74"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="74"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <autoFilter ref="A23:K23"/>
+  <autoFilter ref="A23:M23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A22:M22"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3865,14 +4242,14 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>679450</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -3887,16 +4264,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>679450</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>198120</xdr:rowOff>
+                    <xdr:rowOff>196850</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3909,14 +4286,14 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>679450</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -3931,14 +4308,14 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>679450</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -3953,14 +4330,14 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>679450</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -3975,14 +4352,14 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>679450</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -3997,14 +4374,14 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>679450</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -4019,14 +4396,14 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>678180</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>679450</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>891540</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>889000</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -4042,13 +4419,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:colOff>260350</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -4064,15 +4441,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:colOff>260350</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>198120</xdr:rowOff>
+                    <xdr:rowOff>196850</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4086,13 +4463,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:colOff>260350</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -4108,13 +4485,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:colOff>260350</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -4130,13 +4507,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:colOff>260350</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -4152,13 +4529,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:colOff>260350</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -4174,13 +4551,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:colOff>260350</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -4196,13 +4573,13 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>53340</xdr:colOff>
+                    <xdr:colOff>50800</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>259080</xdr:colOff>
+                    <xdr:colOff>260350</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -4218,19 +4595,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="45.59765625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="45.58203125" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -4325,22 +4702,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.296875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="37" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="13" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" thickBot="1">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -4349,7 +4726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.8" thickTop="1">
+    <row r="2" spans="1:3" ht="16.5" thickTop="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4360,7 +4737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.2">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -4371,7 +4748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -4382,7 +4759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -4393,7 +4770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -4404,7 +4781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.2">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -4415,7 +4792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4435,16 +4812,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D8:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="6" width="13.59765625" customWidth="1"/>
+    <col min="4" max="6" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="4:6">

--- a/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\董镇\补给项目\API\SPPSApi\Doc\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THINK\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547DB074-D3F2-4371-AFFE-501816B2F4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C20F736-467A-4168-BAC4-DE64317B8103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,10 +1105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FTMS零件企划室</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天津CPD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1132,9 +1128,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TFTM生产管理部 补给资材企管课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入荷CPD</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>P/Name chinese</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>FTMS服务部 零件业务室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1144,36 +1161,21 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>零件采购管理室</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>TFTM生产管理部 补给资材企管课</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入荷CPD</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>中文品名</t>
-    <phoneticPr fontId="9"/>
+      <t>服务企划室</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1233,66 +1235,88 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="16"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1560,6 +1584,21 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1589,13 +1628,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1663,194 +1715,209 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1868,12 +1935,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1961,18 +2022,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>84909</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>29390</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>366123</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1750786</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>193221</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1989,8 +2050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5110480" y="1716676"/>
-          <a:ext cx="1665877" cy="406038"/>
+          <a:off x="4938123" y="1616891"/>
+          <a:ext cx="1469027" cy="406038"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2013,18 +2074,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>764268</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>773340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1542143</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1551215</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2041,8 +2102,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5789839" y="1558471"/>
-          <a:ext cx="777875" cy="183243"/>
+          <a:off x="5345340" y="1360714"/>
+          <a:ext cx="777875" cy="417285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2079,12 +2140,12 @@
             <a:defRPr sz="1000" b="0"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" b="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
             </a:rPr>
             <a:t>通 知</a:t>
           </a:r>
@@ -2093,18 +2154,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>413656</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562430</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>206828</xdr:rowOff>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1070427</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1596570</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2121,8 +2182,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9648370" y="1458685"/>
-          <a:ext cx="656771" cy="201387"/>
+          <a:off x="9053287" y="1397000"/>
+          <a:ext cx="1034140" cy="390072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2155,25 +2216,25 @@
         <a:bodyPr rot="0" vertOverflow="clip" vert="horz" wrap="square" lIns="27432" tIns="18288" rtlCol="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0">
+          <a:pPr lvl="0" algn="ctr">
             <a:defRPr sz="1000" b="0"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" b="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
             </a:rPr>
-            <a:t>发 布</a:t>
+            <a:t>系统登录</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1500" b="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="宋体"/>
-            <a:ea typeface="宋体"/>
+            <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2277,20 +2338,358 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311148</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>72574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98879</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>135167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1880" name="Text Box 856">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058070000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6531427" y="1306288"/>
+          <a:ext cx="2058309" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vertOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1500" b="0">
+              <a:effectLst/>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FTMS 服务企划室</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1500">
+            <a:effectLst/>
+            <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1500" b="0">
+              <a:effectLst/>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FTMS </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1500" b="0">
+              <a:effectLst/>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>零件业务室</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1500">
+            <a:effectLst/>
+            <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1500" b="0">
+              <a:effectLst/>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FTMS </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1500" b="0">
+              <a:effectLst/>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所属CPD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1500">
+            <a:effectLst/>
+            <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2057396</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442682</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Text Box 856">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10548253" y="1340760"/>
+          <a:ext cx="2204358" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" vertOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0">
+              <a:effectLst/>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TOPSS/DMS</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="2000">
+            <a:effectLst/>
+            <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>318950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1984827</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8809807" y="1624149"/>
+          <a:ext cx="1665877" cy="406038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 69383"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1891" name="201" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063070000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1890" name="75" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062070000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>889000</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2336,16 +2735,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>889000</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2391,16 +2790,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>889000</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2446,16 +2845,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>889000</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2501,16 +2900,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>889000</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2556,16 +2955,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>889000</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2611,16 +3010,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>889000</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2666,16 +3065,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>679450</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>565150</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>889000</xdr:colOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2722,15 +3121,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2777,15 +3176,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2832,15 +3231,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2887,15 +3286,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2942,15 +3341,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2997,15 +3396,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3052,15 +3451,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3107,15 +3506,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>44450</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>260350</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>158750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3159,279 +3558,65 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1932213</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>154216</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4136572</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>8166</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1880" name="Text Box 856">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1889" name="图片 29" descr="rId1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058070000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061070000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6957784" y="1406073"/>
-          <a:ext cx="2204359" cy="933450"/>
+          <a:off x="14801850" y="0"/>
+          <a:ext cx="3575050" cy="1174750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-            </a:rPr>
-            <a:t>FTMS 零件部 采购管理室</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-            </a:rPr>
-            <a:t>     所属CPD</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1758040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>179616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61684</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33566</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Text Box 856">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10992754" y="1431473"/>
-          <a:ext cx="2204359" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-            </a:rPr>
-            <a:t>FPD/APC</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="宋体"/>
-            <a:ea typeface="宋体"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19594</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>27576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1685471</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9254308" y="1714862"/>
-          <a:ext cx="1665877" cy="406038"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-            <a:gd name="adj2" fmla="val 69383"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>32658</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>1091401</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>167472</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="30" name="图片 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$D$8:$F$11" spid="_x0000_s1912"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="14804572" y="0"/>
-              <a:ext cx="3758400" cy="1201615"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3818,418 +4003,414 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="24.9140625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="55.1640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="22.4140625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="36" customWidth="1"/>
-    <col min="11" max="12" width="17.6640625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="40" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="7.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="29" customWidth="1"/>
+    <col min="6" max="6" width="29.9140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="29" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="19.9140625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="29" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="32" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="33" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="E2" s="34"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
-      <c r="J4" s="47"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="46" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="48"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="E10" s="41"/>
+      <c r="G10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="78"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="79"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="64"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="78"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
     </row>
-    <row r="19" spans="1:13" s="71" customFormat="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="80"/>
+    <row r="19" spans="1:13" s="69" customFormat="1">
+      <c r="A19" s="63"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="86"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="87"/>
     </row>
-    <row r="23" spans="1:13" s="39" customFormat="1" ht="30" customHeight="1">
-      <c r="A23" s="74" t="s">
+    <row r="23" spans="1:13" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="85" t="s">
-        <v>79</v>
+      <c r="B23" s="71" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="70" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="74" t="s">
+      <c r="G23" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="74" t="s">
+      <c r="J23" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="74" t="s">
-        <v>77</v>
+      <c r="M23" s="70" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="25" customFormat="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
+    <row r="24" spans="1:13" s="76" customFormat="1">
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
     </row>
-    <row r="25" spans="1:13">
-      <c r="E25" s="40"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
+    <row r="25" spans="1:13" s="76" customFormat="1">
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="81"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="72" t="s">
+    <row r="27" spans="1:13" ht="16.5">
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="74" t="s">
+      <c r="D27" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="85"/>
-      <c r="H27" s="74" t="s">
+      <c r="G27" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="74" t="s">
+      <c r="H27" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="74" t="s">
+      <c r="I27" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="K27" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="83"/>
-      <c r="M27" s="74"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="74"/>
+      <c r="A28" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="75"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="74"/>
+      <c r="A29" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="75"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <autoFilter ref="A23:M23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A22:M22"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -4242,16 +4423,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>679450</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>889000</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4264,16 +4445,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>679450</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>889000</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>196850</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4286,16 +4467,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>679450</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>889000</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4308,16 +4489,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>679450</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>889000</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4330,16 +4511,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>679450</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>889000</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4352,16 +4533,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>679450</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>889000</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4374,16 +4555,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>679450</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>889000</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4396,16 +4577,16 @@
               <controlPr defaultSize="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>679450</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>565150</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>889000</xdr:colOff>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4419,15 +4600,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>44450</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>260350</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4441,15 +4622,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>44450</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>260350</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>196850</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4463,15 +4644,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>44450</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>260350</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4485,15 +4666,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>44450</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>260350</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4507,15 +4688,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>44450</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>260350</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4529,15 +4710,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>44450</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>260350</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4551,15 +4732,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>44450</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>260350</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4573,15 +4754,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>44450</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>260350</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>158750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4615,17 +4796,17 @@
       <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" customHeight="1" thickTop="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="96" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -4636,8 +4817,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="18" t="s">
         <v>33</v>
       </c>
@@ -4816,7 +4997,7 @@
   <dimension ref="D8:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F11"/>
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4825,32 +5006,32 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:6">
-      <c r="D8" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
+      <c r="D8" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="4:6">
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="48" customHeight="1">
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_XiaoShou.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THINK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\董镇\补给项目\API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C20F736-467A-4168-BAC4-DE64317B8103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7CAC01-71A9-4836-BE92-298BA6E2A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -1174,8 +1174,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1301,6 +1301,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1647,7 +1660,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1900,6 +1913,18 @@
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1943,8 +1968,36 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D74A1677-B94A-47DF-AF6B-2D60AB6CA7EB}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2027,13 +2080,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>366123</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>165462</xdr:rowOff>
+      <xdr:rowOff>143691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>193221</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2079,13 +2132,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>773340</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>105229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1551215</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:rowOff>87084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2156,16 +2209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>562430</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2837545</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1596570</xdr:colOff>
+      <xdr:colOff>442685</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
+      <xdr:rowOff>96157</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2343,13 +2396,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>311148</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>72574</xdr:rowOff>
+      <xdr:rowOff>50803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>98879</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2373994</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>135167</xdr:rowOff>
+      <xdr:rowOff>113396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2460,15 +2513,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2057396</xdr:colOff>
+      <xdr:colOff>903511</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>107046</xdr:rowOff>
+      <xdr:rowOff>85275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>442682</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3120568</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>169639</xdr:rowOff>
+      <xdr:rowOff>147868</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2529,16 +2582,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>318950</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2594065</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:rowOff>150949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1984827</xdr:colOff>
+      <xdr:colOff>830942</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>143330</xdr:rowOff>
+      <xdr:rowOff>121559</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2681,15 +2734,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>769620</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2736,15 +2789,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>769620</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2791,15 +2844,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>769620</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2846,15 +2899,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>769620</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2901,15 +2954,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>769620</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2956,15 +3009,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>746760</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3011,15 +3064,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>769620</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3066,15 +3119,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>769620</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3121,15 +3174,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>44450</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3176,15 +3229,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>44450</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3231,15 +3284,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>44450</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3286,15 +3339,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>44450</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3341,15 +3394,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>44450</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3396,15 +3449,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>44450</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3451,15 +3504,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>44450</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3506,15 +3559,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>44450</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
+          <xdr:colOff>251460</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4000,32 +4053,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="7.296875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" style="30" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="29" customWidth="1"/>
-    <col min="6" max="6" width="29.9140625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="29" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="19.9140625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="29" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="32" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="33" customWidth="1"/>
+    <col min="6" max="7" width="45" style="29" customWidth="1"/>
+    <col min="8" max="8" width="21.69921875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="19.8984375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="32" customWidth="1"/>
+    <col min="12" max="12" width="17.69921875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="14.69921875" style="33" customWidth="1"/>
     <col min="14" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="87" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="27"/>
@@ -4048,17 +4103,17 @@
       <c r="A3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="J4" s="35"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A5" s="36"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="88" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="38"/>
@@ -4069,9 +4124,9 @@
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1">
+    <row r="6" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A6" s="41"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="89" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="42"/>
@@ -4083,9 +4138,9 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1">
+    <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="41"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="89" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="42"/>
@@ -4097,9 +4152,9 @@
       <c r="K7" s="45"/>
       <c r="L7" s="45"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1">
+    <row r="8" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A8" s="41"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="42"/>
@@ -4111,9 +4166,9 @@
       <c r="K8" s="45"/>
       <c r="L8" s="45"/>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1">
+    <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A9" s="41"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="89" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="42"/>
@@ -4125,9 +4180,9 @@
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A10" s="41"/>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="89" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="42"/>
@@ -4140,9 +4195,9 @@
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A11" s="46"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="48"/>
@@ -4153,12 +4208,13 @@
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="12" spans="1:13" ht="17.399999999999999" customHeight="1"/>
+    <row r="13" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="50"/>
@@ -4173,7 +4229,7 @@
       <c r="L14" s="53"/>
       <c r="M14" s="54"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A15" s="46"/>
       <c r="B15" s="47"/>
       <c r="C15" s="55"/>
@@ -4188,7 +4244,7 @@
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -4203,12 +4259,12 @@
       <c r="L16" s="40"/>
       <c r="M16" s="61"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A17" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -4223,7 +4279,7 @@
       <c r="L18" s="53"/>
       <c r="M18" s="54"/>
     </row>
-    <row r="19" spans="1:13" s="69" customFormat="1">
+    <row r="19" spans="1:13" s="69" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A19" s="63"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -4238,27 +4294,28 @@
       <c r="L19" s="67"/>
       <c r="M19" s="68"/>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1">
+    <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1"/>
+    <row r="21" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A21" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="87"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="91"/>
     </row>
     <row r="23" spans="1:13" s="32" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="70" t="s">
@@ -4301,7 +4358,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="76" customFormat="1">
+    <row r="24" spans="1:13" s="76" customFormat="1" ht="16.8" customHeight="1">
       <c r="D24" s="77"/>
       <c r="E24" s="78"/>
       <c r="F24" s="79"/>
@@ -4313,7 +4370,7 @@
       <c r="L24" s="78"/>
       <c r="M24" s="78"/>
     </row>
-    <row r="25" spans="1:13" s="76" customFormat="1">
+    <row r="25" spans="1:13" s="76" customFormat="1" ht="16.8" customHeight="1">
       <c r="D25" s="77"/>
       <c r="E25" s="78"/>
       <c r="F25" s="79"/>
@@ -4325,7 +4382,7 @@
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="16.8" customHeight="1">
       <c r="A26" s="29" t="s">
         <v>67</v>
       </c>
@@ -4337,9 +4394,9 @@
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="1:13" ht="16.5">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
+    <row r="27" spans="1:13" ht="16.8" customHeight="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="84" t="s">
         <v>68</v>
       </c>
@@ -4366,7 +4423,7 @@
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="16.8" customHeight="1">
       <c r="A28" s="75" t="s">
         <v>73</v>
       </c>
@@ -4383,7 +4440,7 @@
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="16.8" customHeight="1">
       <c r="A29" s="75" t="s">
         <v>74</v>
       </c>
@@ -4409,8 +4466,8 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -4424,15 +4481,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>769620</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4446,15 +4503,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>769620</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4468,15 +4525,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>769620</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4490,15 +4547,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>769620</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4512,15 +4569,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>769620</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4534,15 +4591,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>746760</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4556,15 +4613,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>769620</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4578,15 +4635,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:colOff>769620</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4600,15 +4657,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>44450</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4622,15 +4679,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>44450</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4644,15 +4701,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>44450</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4666,15 +4723,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>44450</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4688,15 +4745,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>44450</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4710,15 +4767,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>44450</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
+                    <xdr:colOff>213360</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4732,15 +4789,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>44450</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4754,15 +4811,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>44450</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
+                    <xdr:colOff>251460</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>158750</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4783,12 +4840,12 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="45.58203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="45.59765625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -4796,17 +4853,17 @@
       <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" customHeight="1" thickTop="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -4817,8 +4874,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="18" t="s">
         <v>33</v>
       </c>
@@ -4890,15 +4947,15 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" style="11" customWidth="1"/>
     <col min="2" max="2" width="37" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="13" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1">
+    <row r="1" spans="1:3" ht="16.8" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -4907,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1">
+    <row r="2" spans="1:3" ht="16.8" thickTop="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4918,7 +4975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="16.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -4929,7 +4986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="16.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -4940,7 +4997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="16.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -4951,7 +5008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="16.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -4962,7 +5019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16">
+    <row r="7" spans="1:3" ht="16.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -4973,7 +5030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16">
+    <row r="8" spans="1:3" ht="16.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -5000,17 +5057,17 @@
       <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="6" width="13.58203125" customWidth="1"/>
+    <col min="4" max="6" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="4:6">
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="25" t="s">
